--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfry\Desktop\CS522-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD00C3E-96DA-4A73-9CE8-A9DD2A28ACB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD818714-464C-442E-A8E7-885727AFACB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C885F398-DC1A-4E84-BF37-44095B12F7BE}"/>
   </bookViews>
@@ -221,12 +221,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,6 +241,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6876,507 +6876,507 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
         <v>77.3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>49.854999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>82.7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>61.3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>70.400000000000006</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>77.8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>30.4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>4.2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>7.4</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>54.7</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>81.400000000000006</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>66.400000000000006</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>73.099999999999994</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>79</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
         <v>76.7</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>71.7</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>74.099999999999994</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>78.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>2.52</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>85</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>65.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>74</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>80.2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>5.69</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="B20" s="1">
+        <v>0</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="A24" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,41 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfry\Desktop\CS522-Final-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD818714-464C-442E-A8E7-885727AFACB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C885F398-DC1A-4E84-BF37-44095B12F7BE}"/>
+    <workbookView windowWidth="12930" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
-    <t>BPNN</t>
+    <t>Entire Dataset</t>
   </si>
   <si>
     <t>Precision</t>
@@ -56,6 +37,12 @@
     <t>MPP - Case 1</t>
   </si>
   <si>
+    <t>MPP - Case 2</t>
+  </si>
+  <si>
+    <t>MPP - Case 3</t>
+  </si>
+  <si>
     <t>kNN</t>
   </si>
   <si>
@@ -68,22 +55,16 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>SVM</t>
+    <t>BPNN</t>
   </si>
   <si>
-    <t>BERT</t>
+    <t>SVM</t>
   </si>
   <si>
     <t>Fusion</t>
   </si>
   <si>
-    <t>MPP - Case 2</t>
-  </si>
-  <si>
-    <t>MPP - Case 3</t>
-  </si>
-  <si>
-    <t>Entire Dataset</t>
+    <t>BERT</t>
   </si>
   <si>
     <t>Reduced Dataset</t>
@@ -92,13 +73,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,34 +101,363 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -143,14 +467,14 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -158,45 +482,32 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -204,71 +515,370 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -286,7 +896,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -310,6 +920,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -318,26 +929,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -385,7 +976,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -397,7 +988,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -410,6 +1000,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -511,11 +1102,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F89A-4595-89AB-CC2D793114E2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -556,7 +1142,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -568,7 +1154,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -581,6 +1166,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -662,10 +1248,10 @@
                   <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.400000000000006</c:v>
+                  <c:v>81.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>76.7</c:v>
@@ -674,7 +1260,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>82.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -682,14 +1268,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F89A-4595-89AB-CC2D793114E2}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -731,7 +1311,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -743,7 +1323,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -781,7 +1360,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -797,9 +1376,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Precision (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -808,26 +1389,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -845,7 +1406,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -857,7 +1418,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -874,6 +1434,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -887,7 +1448,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -899,19 +1460,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -934,9 +1487,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -948,9 +1500,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -968,7 +1520,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -992,6 +1544,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1000,26 +1553,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1067,7 +1600,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1079,7 +1612,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1092,6 +1624,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1193,11 +1726,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-339C-4CBC-B054-EFEE28C372DC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1238,7 +1766,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1250,7 +1778,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1263,6 +1790,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1344,10 +1872,10 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>71.7</c:v>
@@ -1356,7 +1884,7 @@
                   <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>66.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1364,14 +1892,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-339C-4CBC-B054-EFEE28C372DC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -1413,7 +1935,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1425,7 +1947,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -1463,7 +1984,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1479,9 +2000,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Recall (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1490,26 +2013,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1527,7 +2030,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1539,7 +2042,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -1556,6 +2058,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1569,7 +2072,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1581,19 +2084,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1616,9 +2111,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1630,9 +2124,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1650,7 +2144,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1674,6 +2168,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1682,26 +2177,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1749,7 +2224,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1761,7 +2236,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1774,6 +2248,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1875,11 +2350,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7917-4284-AAC9-DAE3866229EC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1920,7 +2390,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1932,7 +2402,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1945,6 +2414,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2020,25 +2490,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>70.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.099999999999994</c:v>
+                  <c:v>73.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.099999999999994</c:v>
+                  <c:v>74.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>73.7</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2046,14 +2516,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7917-4284-AAC9-DAE3866229EC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2095,7 +2559,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2107,7 +2571,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -2145,7 +2608,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2161,9 +2624,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>F1-Score (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2172,26 +2637,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2209,7 +2654,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2221,7 +2666,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -2238,6 +2682,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2251,7 +2696,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2263,19 +2708,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2298,9 +2735,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2312,9 +2748,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2332,7 +2768,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2356,6 +2792,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2364,26 +2801,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2431,7 +2848,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2443,7 +2860,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2456,6 +2872,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2557,11 +2974,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D31C-4528-8E6F-3D6F969E342E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2602,7 +3014,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2614,7 +3026,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2627,6 +3038,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2708,7 +3120,7 @@
                   <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>79</c:v>
@@ -2720,7 +3132,7 @@
                   <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>79.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2728,14 +3140,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D31C-4528-8E6F-3D6F969E342E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -2777,7 +3183,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2789,7 +3195,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -2827,7 +3232,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2843,9 +3248,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2854,26 +3261,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2891,7 +3278,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2903,7 +3290,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -2920,6 +3306,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2933,7 +3320,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2945,19 +3332,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2980,9 +3359,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2994,9 +3372,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3014,7 +3392,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3038,6 +3416,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3046,26 +3425,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3113,7 +3472,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3125,7 +3484,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3138,6 +3496,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3239,11 +3598,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9C0B-4DBC-BC97-4D1EB8BA5D8D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3284,7 +3638,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3296,7 +3650,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3309,6 +3662,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3375,7 +3729,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>49.854999999999997</c:v>
+                  <c:v>49.855</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3390,10 +3744,10 @@
                   <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>11.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.52</c:v>
@@ -3402,7 +3756,7 @@
                   <c:v>5.69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3410,14 +3764,8 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9C0B-4DBC-BC97-4D1EB8BA5D8D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -3459,7 +3807,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3471,7 +3819,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -3509,7 +3856,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3533,9 +3880,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t> (sec.)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3544,26 +3893,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3581,7 +3910,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3593,7 +3922,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -3610,6 +3938,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3623,7 +3952,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3635,19 +3964,11 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3670,9 +3991,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6384,7 +6704,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -6398,20 +6718,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FD3FFF-3C11-4B89-858A-95F4490563C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="209550"/>
+        <a:ext cx="12351385" cy="5019675"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6434,22 +6748,14 @@
       <xdr:row>53</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB76BAD1-9120-4C63-A86F-CA90BC4A4A4D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="5657850"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6472,22 +6778,14 @@
       <xdr:row>80</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A2834A3-D74B-4592-89BC-5F729420F3EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="11058525"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6510,22 +6808,14 @@
       <xdr:row>107</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE5B9D6-1CAD-4C1C-A833-D0F7293D096F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="16459200"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6548,22 +6838,14 @@
       <xdr:row>134</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="13" name="Chart 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7BB964-64F4-4C36-BE62-5B172A094D13}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="21859875"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6619,7 +6901,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -6652,26 +6934,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -6704,23 +6969,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6862,35 +7110,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C142DD30-1A0E-45C5-9CE0-8580CD2C109F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.8533333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+    <row r="1" ht="16.5" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="16.5" spans="2:6">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6903,241 +7146,241 @@
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>77.3</v>
       </c>
-      <c r="F3" s="1">
-        <v>49.854999999999997</v>
+      <c r="F3" s="5">
+        <v>49.855</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>82.7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>61.3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>70.4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>77.8</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="5">
+        <v>30.4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="E7" s="5">
+        <v>54.7</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5">
+        <v>43</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100</v>
+      </c>
+      <c r="D8" s="5">
+        <v>60.1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43</v>
+      </c>
+      <c r="F8" s="5">
+        <v>11.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5">
+        <v>81.4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>73.1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>79</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5">
+        <v>76.7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>71.7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>74.1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B11" s="5">
+        <v>85</v>
+      </c>
+      <c r="C11" s="5">
+        <v>65.5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>74</v>
+      </c>
+      <c r="E11" s="5">
+        <v>80.2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5">
+        <v>82.6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>66.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>73.7</v>
+      </c>
+      <c r="E12" s="5">
+        <v>79.6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
+      <c r="A13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
         <v>0</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D13" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E13" s="5">
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F13" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
+    <row r="15" ht="16.5" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>82.7</v>
-      </c>
-      <c r="C6" s="1">
-        <v>61.3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E6" s="1">
-        <v>77.8</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>30.4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>54.7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="C9" s="1">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D9" s="1">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E9" s="1">
-        <v>79</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>76.7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>71.7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E10" s="1">
-        <v>78.5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>85</v>
-      </c>
-      <c r="C11" s="1">
-        <v>65.5</v>
-      </c>
-      <c r="D11" s="1">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>5.69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+    <row r="16" ht="16.5" spans="1:6">
+      <c r="A16" s="5"/>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -7150,233 +7393,233 @@
       <c r="E16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="5">
         <v>0</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="5">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="5">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B25" s="5">
         <v>0</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D25" s="5">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B26" s="5">
         <v>0</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C26" s="5">
         <v>0</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D26" s="5">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E26" s="5">
         <v>0</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F26" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1">
+    <row r="27" ht="16.5" spans="1:6">
+      <c r="A27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5">
         <v>0</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C27" s="5">
         <v>0</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D27" s="5">
         <v>0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E27" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F27" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="1">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="1">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+    <row r="28" spans="5:6">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7384,7 +7627,8 @@
     <mergeCell ref="B15:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12930" windowHeight="12150"/>
+    <workbookView windowWidth="18930" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,14 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,68 +129,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -220,7 +151,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,16 +181,22 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,6 +215,46 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -272,19 +265,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +283,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,31 +355,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,19 +403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,67 +445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,26 +533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,30 +559,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,6 +583,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -637,148 +606,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,7 +1241,7 @@
                   <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>81.4</c:v>
@@ -1872,7 +1865,7 @@
                   <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66.4</c:v>
@@ -3120,7 +3113,7 @@
                   <c:v>54.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>42.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>79</c:v>
@@ -3744,7 +3737,7 @@
                   <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.39</c:v>
+                  <c:v>15.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.1</c:v>
@@ -7119,7 +7112,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.8533333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
@@ -7255,19 +7248,19 @@
         <v>11</v>
       </c>
       <c r="B8" s="5">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="C8" s="5">
-        <v>100</v>
+        <v>99.9</v>
       </c>
       <c r="D8" s="5">
         <v>60.1</v>
       </c>
       <c r="E8" s="5">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="F8" s="5">
-        <v>11.39</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
